--- a/data/trans_dic/P42C_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R2-Habitat-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7921082583437726</v>
+        <v>0.788848204807294</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8711288450202906</v>
+        <v>0.8693688341933378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8393552403859548</v>
+        <v>0.8393817292294228</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8591739119081189</v>
+        <v>0.8623900903883522</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.927709114155035</v>
+        <v>0.9286318333784931</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8947969202738225</v>
+        <v>0.8974747101901571</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0.8612076186673963</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7850983238301126</v>
+        <v>0.7850983238301125</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6902234190970452</v>
+        <v>0.686181266709854</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8326756834903484</v>
+        <v>0.8351114694990843</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7526438616659502</v>
+        <v>0.7539430377552042</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7593431454118826</v>
+        <v>0.7542515266145814</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8841940661384939</v>
+        <v>0.8836277284529344</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8133798958917796</v>
+        <v>0.8133021341041335</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
         <v>0.8383715643823593</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6805211528152194</v>
+        <v>0.6805211528152193</v>
       </c>
     </row>
     <row r="11">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7046555101216355</v>
+        <v>0.707461319737764</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8100311179141998</v>
+        <v>0.8026168482368982</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6404528583360892</v>
+        <v>0.6392475574331794</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7832738060747018</v>
+        <v>0.7837260347041328</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8681501550158269</v>
+        <v>0.8645657921211551</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7228190496759527</v>
+        <v>0.7229331551202763</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.731746985502039</v>
+        <v>0.7320453227637245</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7677039502638991</v>
+        <v>0.7679298686032654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.683094285553364</v>
+        <v>0.6841748814919901</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7966435072548852</v>
+        <v>0.7927863629395762</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8266419622712982</v>
+        <v>0.8276656004274674</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7438376921507209</v>
+        <v>0.7451639299468273</v>
       </c>
     </row>
     <row r="16">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7398432412598196</v>
+        <v>0.7441212467346331</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8301105147549896</v>
+        <v>0.8304030318228367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7403362400465359</v>
+        <v>0.7413612018024193</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7773379645932481</v>
+        <v>0.7781572412129818</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8586074330914214</v>
+        <v>0.8584836103462492</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7727137744767807</v>
+        <v>0.7743031247886487</v>
       </c>
     </row>
     <row r="19">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>412509</v>
+        <v>410811</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>430396</v>
+        <v>429526</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>326192</v>
+        <v>326202</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>447435</v>
+        <v>449109</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>458350</v>
+        <v>458806</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>347738</v>
+        <v>348778</v>
       </c>
     </row>
     <row r="8">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>536002</v>
+        <v>532863</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>702433</v>
+        <v>704488</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>458525</v>
+        <v>459316</v>
       </c>
     </row>
     <row r="11">
@@ -1068,13 +1068,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>589678</v>
+        <v>585724</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>745893</v>
+        <v>745415</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>495526</v>
+        <v>495479</v>
       </c>
     </row>
     <row r="12">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>448981</v>
+        <v>450769</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>488279</v>
+        <v>483810</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>295397</v>
+        <v>294841</v>
       </c>
     </row>
     <row r="15">
@@ -1140,13 +1140,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>499074</v>
+        <v>499362</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>523313</v>
+        <v>521152</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>333387</v>
+        <v>333439</v>
       </c>
     </row>
     <row r="16">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>589448</v>
+        <v>589688</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>642039</v>
+        <v>642228</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>444812</v>
+        <v>445516</v>
       </c>
     </row>
     <row r="19">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>641724</v>
+        <v>638617</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>691330</v>
+        <v>692186</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>484366</v>
+        <v>485230</v>
       </c>
     </row>
     <row r="20">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2027196</v>
+        <v>2038918</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2305013</v>
+        <v>2305825</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1562289</v>
+        <v>1564452</v>
       </c>
     </row>
     <row r="23">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2129932</v>
+        <v>2132177</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2384142</v>
+        <v>2383798</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1630614</v>
+        <v>1633968</v>
       </c>
     </row>
     <row r="24">
